--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/TEZ/tez.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/TEZ/tez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\TEZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\TEZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0439B-3A70-401E-A557-405558163F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04813A6-A28F-4616-BBD6-E6584F17BAE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEZ Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
@@ -2389,7 +2390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -2484,9 +2485,6 @@
     <t>Since Inception</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Cumulative Return</t>
   </si>
   <si>
@@ -2546,7 +2544,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2721,6 +2719,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3007,7 +3011,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -3222,6 +3226,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3262,36 +3300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5423,7 +5431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> TEZIX </c:v>
+                  <c:v>TEZIX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5444,7 +5452,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$A$2:$A$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43830</c:v>
@@ -5492,7 +5500,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>[$-10409]#,##0.00;\(#,##0.00\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
@@ -5506,22 +5514,22 @@
                 <c:pt idx="3">
                   <c:v>9250</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="4">
                   <c:v>9400</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
+                <c:pt idx="5">
                   <c:v>9530</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>9700</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>10380</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="8">
                   <c:v>10381</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
+                <c:pt idx="9">
                   <c:v>10260</c:v>
                 </c:pt>
               </c:numCache>
@@ -5543,7 +5551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> S&amp;P 500 TR Index </c:v>
+                  <c:v>S&amp;P 500 TR Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5564,7 +5572,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$A$2:$A$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43830</c:v>
@@ -5612,7 +5620,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
@@ -5684,7 +5692,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$A$2:$A$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43830</c:v>
@@ -5732,7 +5740,7 @@
             <c:numRef>
               <c:f>'[7]TEZ Fact Sheet Backup'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
@@ -5771,6 +5779,1268 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7602-488C-8D0E-D22F5BFE8FFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536349000"/>
+        <c:axId val="536340472"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536349000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44196"/>
+          <c:min val="43830"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536340472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536340472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 47 Cn Lt" panose="020B0406020202040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536349000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5512551838884917E-2"/>
+          <c:y val="2.4262036556840914E-2"/>
+          <c:w val="0.87485631320830415"/>
+          <c:h val="0.87553422308775131"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEZIX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C811-473C-91F7-5D6349AD7C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500 TR Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9996.078473259613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9173.2139887114972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8040.1979379178074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9070.9033397064522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9502.927412082272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9691.9236385664626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10238.404411641292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10974.339176967669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10557.345080620182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10276.597335498058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11401.510932209469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11839.882689892687</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11720.344789175979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12043.527420932411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12570.980396943958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C811-473C-91F7-5D6349AD7C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPRP10T Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9979.550397270501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9667.8111711815691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8630.8864740484805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8835.9595624434223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9323.1794623954556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9648.5156906519733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9996.5376334002976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10244.764072175918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10121.868091045817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9907.1833287048248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10718.693533669715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11147.918793076711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11181.911298495677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11278.172303231186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11279.993652327905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C811-473C-91F7-5D6349AD7C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536349000"/>
+        <c:axId val="536340472"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536349000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44196"/>
+          <c:min val="43830"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536340472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536340472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 47 Cn Lt" panose="020B0406020202040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536349000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5512551838884917E-2"/>
+          <c:y val="2.4262036556840914E-2"/>
+          <c:w val="0.87485631320830415"/>
+          <c:h val="0.87553422308775131"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEZIX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED1A-4100-9AD4-38FCC59DF205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500 TR Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9996.078473259613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9173.2139887114972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8040.1979379178074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9070.9033397064522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9502.927412082272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9691.9236385664626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10238.404411641292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10974.339176967669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10557.345080620182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10276.597335498058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11401.510932209469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11839.882689892687</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11720.344789175979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12043.527420932411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12570.980396943958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED1A-4100-9AD4-38FCC59DF205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPRP10T Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[8]TEZ Fact Sheet Backup'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9979.550397270501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9667.8111711815691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8630.8864740484805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8835.9595624434223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9323.1794623954556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9648.5156906519733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9996.5376334002976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10244.764072175918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10121.868091045817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9907.1833287048248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10718.693533669715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11147.918793076711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11181.911298495677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11278.172303231186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11279.993652327905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED1A-4100-9AD4-38FCC59DF205}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6134,6 +7404,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8199,6 +9549,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1862" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1862" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8906,6 +11288,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>375529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15605758-B4EB-4491-8B19-49F48E7B91C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>375529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789FD9F6-2F10-4CF1-8B79-96A1B22F8B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9879,6 +12337,257 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TEZ Fact Sheet Backup"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>TEZIX</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>S&amp;P 500 TR Index</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>SPRP10T Index</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>43830</v>
+          </cell>
+          <cell r="B2">
+            <v>10000</v>
+          </cell>
+          <cell r="D2">
+            <v>10000</v>
+          </cell>
+          <cell r="F2">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43861</v>
+          </cell>
+          <cell r="B3">
+            <v>10340</v>
+          </cell>
+          <cell r="D3">
+            <v>9996.078473259613</v>
+          </cell>
+          <cell r="F3">
+            <v>9979.550397270501</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43890</v>
+          </cell>
+          <cell r="B4">
+            <v>10210</v>
+          </cell>
+          <cell r="D4">
+            <v>9173.2139887114972</v>
+          </cell>
+          <cell r="F4">
+            <v>9667.8111711815691</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43921</v>
+          </cell>
+          <cell r="B5">
+            <v>9250</v>
+          </cell>
+          <cell r="D5">
+            <v>8040.1979379178074</v>
+          </cell>
+          <cell r="F5">
+            <v>8630.8864740484805</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43951</v>
+          </cell>
+          <cell r="B6">
+            <v>9400</v>
+          </cell>
+          <cell r="D6">
+            <v>9070.9033397064522</v>
+          </cell>
+          <cell r="F6">
+            <v>8835.9595624434223</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43982</v>
+          </cell>
+          <cell r="B7">
+            <v>9530</v>
+          </cell>
+          <cell r="D7">
+            <v>9502.927412082272</v>
+          </cell>
+          <cell r="F7">
+            <v>9323.1794623954556</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>44012</v>
+          </cell>
+          <cell r="B8">
+            <v>9700</v>
+          </cell>
+          <cell r="D8">
+            <v>9691.9236385664626</v>
+          </cell>
+          <cell r="F8">
+            <v>9648.5156906519733</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>44043</v>
+          </cell>
+          <cell r="B9">
+            <v>10380</v>
+          </cell>
+          <cell r="D9">
+            <v>10238.404411641292</v>
+          </cell>
+          <cell r="F9">
+            <v>9996.5376334002976</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>44074</v>
+          </cell>
+          <cell r="B10">
+            <v>10381</v>
+          </cell>
+          <cell r="D10">
+            <v>10974.339176967669</v>
+          </cell>
+          <cell r="F10">
+            <v>10244.764072175918</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44104</v>
+          </cell>
+          <cell r="B11">
+            <v>10260</v>
+          </cell>
+          <cell r="D11">
+            <v>10557.345080620182</v>
+          </cell>
+          <cell r="F11">
+            <v>10121.868091045817</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>44135</v>
+          </cell>
+          <cell r="B12">
+            <v>9660</v>
+          </cell>
+          <cell r="D12">
+            <v>10276.597335498058</v>
+          </cell>
+          <cell r="F12">
+            <v>9907.1833287048248</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44165</v>
+          </cell>
+          <cell r="B13">
+            <v>9780</v>
+          </cell>
+          <cell r="D13">
+            <v>11401.510932209469</v>
+          </cell>
+          <cell r="F13">
+            <v>10718.693533669715</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44196</v>
+          </cell>
+          <cell r="B14">
+            <v>9845</v>
+          </cell>
+          <cell r="D14">
+            <v>11839.882689892687</v>
+          </cell>
+          <cell r="F14">
+            <v>11147.918793076711</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>44227</v>
+          </cell>
+          <cell r="B15">
+            <v>9578</v>
+          </cell>
+          <cell r="D15">
+            <v>11720.344789175979</v>
+          </cell>
+          <cell r="F15">
+            <v>11181.911298495677</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44255</v>
+          </cell>
+          <cell r="B16">
+            <v>9407</v>
+          </cell>
+          <cell r="D16">
+            <v>12043.527420932411</v>
+          </cell>
+          <cell r="F16">
+            <v>11278.172303231186</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>44286</v>
+          </cell>
+          <cell r="B17">
+            <v>9429</v>
+          </cell>
+          <cell r="D17">
+            <v>12570.980396943958</v>
+          </cell>
+          <cell r="F17">
+            <v>11279.993652327905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10190,48 +12899,48 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="73" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="6"/>
+    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="73" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
     <col min="9" max="9" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="73" customWidth="1"/>
     <col min="12" max="12" width="21" style="73" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="73" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" style="73" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="6"/>
+    <col min="14" max="14" width="4.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="73" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>1</v>
@@ -10240,15 +12949,15 @@
         <v>2</v>
       </c>
       <c r="J1" s="3">
-        <v>44196</v>
-      </c>
-      <c r="O1" s="74" t="s">
+        <v>44286</v>
+      </c>
+      <c r="O1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43830</v>
       </c>
@@ -10268,18 +12977,18 @@
         <v>3</v>
       </c>
       <c r="J2" s="56">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="O2" s="77" t="s">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="O2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>EOMONTH(A2,1)</f>
         <v>43861</v>
@@ -10309,8 +13018,8 @@
         <v>4</v>
       </c>
       <c r="J3" s="11">
-        <f>(COUNTA(C3:C286))+K3</f>
-        <v>12</v>
+        <f>(COUNTA(C3:C289))+K3</f>
+        <v>15</v>
       </c>
       <c r="K3" s="24">
         <v>0</v>
@@ -10318,26 +13027,26 @@
       <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="94"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A14" si="0">EOMONTH(A3,1)</f>
+        <f t="shared" ref="A4:A17" si="0">EOMONTH(A3,1)</f>
         <v>43890</v>
       </c>
       <c r="B4" s="58">
         <v>10210</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C14" si="1">B4/B3-1</f>
+        <f t="shared" ref="C4:C17" si="1">B4/B3-1</f>
         <v>-1.2572533849129597E-2</v>
       </c>
       <c r="D4" s="51">
-        <f t="shared" ref="D4:F14" si="2">D3*(1+E4)</f>
+        <f t="shared" ref="D4:F17" si="2">D3*(1+E4)</f>
         <v>9173.2139887114972</v>
       </c>
       <c r="E4" s="59">
@@ -10350,13 +13059,13 @@
       <c r="G4" s="59">
         <v>-3.1237802674376591E-2</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -10390,7 +13099,7 @@
       <c r="K5" s="33"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>43951</v>
@@ -10421,12 +13130,12 @@
       </c>
       <c r="J6" s="44">
         <f>((Q31-J2)-J7*(R31-J2))</f>
-        <v>-7.9899820929823243E-2</v>
+        <v>-0.11724762229134739</v>
       </c>
       <c r="K6" s="40"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>43982</v>
@@ -10456,13 +13165,13 @@
         <v>20</v>
       </c>
       <c r="J7" s="45">
-        <f>COVAR(C3:C80,E3:E80)/VAR(E3:E80)</f>
-        <v>0.34745711111008137</v>
+        <f>COVAR(C3:C83,E3:E83)/VAR(E3:E83)</f>
+        <v>0.35439352855940964</v>
       </c>
       <c r="K7" s="40"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>44012</v>
@@ -10489,16 +13198,16 @@
         <v>3.4895416265314116E-2</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="45">
-        <f>RSQ(C3:C80,E3:E80)</f>
-        <v>0.45256735717740809</v>
+        <f>RSQ(C3:C83,E3:E83)</f>
+        <v>0.44503145478195355</v>
       </c>
       <c r="K8" s="40"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>44043</v>
@@ -10526,7 +13235,7 @@
       </c>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>44074</v>
@@ -10581,10 +13290,10 @@
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="S10" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>44104</v>
@@ -10615,41 +13324,41 @@
       </c>
       <c r="J11" s="26">
         <f>J19*100</f>
-        <v>-4.05</v>
+        <v>-4.2254951752158458</v>
       </c>
       <c r="K11" s="26">
         <f>K19*100</f>
-        <v>-1.55</v>
+        <v>-4.2254951752158458</v>
       </c>
       <c r="L11" s="26">
         <f>IFERROR(L19*100,"n/a")</f>
-        <v>-1.55</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="M11" s="26">
         <f>M19*100</f>
-        <v>-1.5499999999999958</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="14">
         <f>EOMONTH($J$1,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="Q11" s="52">
-        <f t="shared" ref="Q11:Q18" si="3">SUMIF($A$2:$A$293,$P11,$B$2:$B$293)</f>
-        <v>10260</v>
+        <f t="shared" ref="Q11:Q18" si="3">SUMIF($A$2:$A$296,$P11,$B$2:$B$296)</f>
+        <v>9845</v>
       </c>
       <c r="R11" s="53">
-        <f t="shared" ref="R11:R18" si="4">SUMIF($A$2:$A$293,$P11,$D$2:$D$293)</f>
-        <v>10557.345080620182</v>
+        <f t="shared" ref="R11:R18" si="4">SUMIF($A$2:$A$296,$P11,$D$2:$D$296)</f>
+        <v>11839.882689892687</v>
       </c>
       <c r="S11" s="70">
-        <f>SUMIF($A$2:$A$293,$P11,$F$2:$F$293)</f>
-        <v>10121.868091045817</v>
+        <f t="shared" ref="S11:S18" si="5">SUMIF($A$2:$A$296,$P11,$F$2:$F$296)</f>
+        <v>11147.918793076711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>44135</v>
@@ -10679,41 +13388,41 @@
         <v>9</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" ref="J12:M16" si="5">J20*100</f>
-        <v>-4.16</v>
+        <f t="shared" ref="J12:M16" si="6">J20*100</f>
+        <v>-4.2299999999999995</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" si="5"/>
-        <v>-1.79</v>
+        <f t="shared" si="6"/>
+        <v>-4.2299999999999995</v>
       </c>
       <c r="L12" s="26">
-        <f t="shared" ref="L12:L16" si="6">IFERROR(L20*100,"n/a")</f>
-        <v>-1.79</v>
+        <f t="shared" ref="L12:L16" si="7">IFERROR(L20*100,"n/a")</f>
+        <v>1.79</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="5"/>
-        <v>-1.79</v>
+        <f t="shared" si="6"/>
+        <v>-4.79</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="60">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="Q12" s="52">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>9845</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>11839.882689892687</v>
       </c>
       <c r="S12" s="70">
-        <f t="shared" ref="S12:S18" si="7">SUMIF($A$2:$A$293,$P12,$F$2:$F$293)</f>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11147.918793076711</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>44165</v>
@@ -10743,42 +13452,42 @@
         <v>10</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="5"/>
-        <v>-4.2799999999999994</v>
+        <f t="shared" si="6"/>
+        <v>-4.46</v>
       </c>
       <c r="K13" s="26">
-        <f t="shared" si="5"/>
-        <v>-2.56</v>
+        <f t="shared" si="6"/>
+        <v>-4.46</v>
       </c>
       <c r="L13" s="26">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+      <c r="M13" s="26">
         <f t="shared" si="6"/>
-        <v>-2.56</v>
-      </c>
-      <c r="M13" s="26">
-        <f t="shared" si="5"/>
-        <v>-2.56</v>
+        <v>-5.56</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="14">
         <f>EOMONTH($J$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="Q13" s="52">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>9250</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>8040.1979379178074</v>
       </c>
       <c r="S13" s="70">
-        <f t="shared" si="7"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>8630.8864740484805</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>44196</v>
@@ -10808,27 +13517,27 @@
         <v>11</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" si="5"/>
-        <v>-9.629999999999999</v>
+        <f t="shared" si="6"/>
+        <v>-9.7000000000000011</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="5"/>
-        <v>-7.4399999999999995</v>
+        <f t="shared" si="6"/>
+        <v>-9.7000000000000011</v>
       </c>
       <c r="L14" s="26">
+        <f t="shared" si="7"/>
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="M14" s="26">
         <f t="shared" si="6"/>
-        <v>-7.4399999999999995</v>
-      </c>
-      <c r="M14" s="26">
-        <f t="shared" si="5"/>
-        <v>-7.4399999999999995</v>
+        <v>-9.19</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="14">
         <f>EOMONTH($J$1,-24)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="Q14" s="52">
         <f t="shared" si="3"/>
@@ -10839,43 +13548,62 @@
         <v>0</v>
       </c>
       <c r="S14" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>44227</v>
+      </c>
+      <c r="B15" s="72">
+        <v>9578</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.7120365667851698E-2</v>
+      </c>
+      <c r="D15" s="51">
+        <f t="shared" si="2"/>
+        <v>11720.344789175979</v>
+      </c>
+      <c r="E15" s="59">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="F15" s="51">
+        <f t="shared" si="2"/>
+        <v>11181.911298495677</v>
+      </c>
+      <c r="G15" s="59">
+        <v>3.0492243485014114E-3</v>
+      </c>
       <c r="I15" s="30" t="str">
         <f>R10</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="J15" s="27">
         <f>J23*100</f>
-        <v>12.148296749594966</v>
+        <v>6.1748728952811716</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" si="5"/>
-        <v>18.398826898926874</v>
+        <f t="shared" si="6"/>
+        <v>6.1748728952811716</v>
       </c>
       <c r="L15" s="26">
+        <f t="shared" si="7"/>
+        <v>56.351628330676398</v>
+      </c>
+      <c r="M15" s="27">
         <f t="shared" si="6"/>
-        <v>18.398826898926874</v>
-      </c>
-      <c r="M15" s="27">
-        <f t="shared" si="5"/>
-        <v>18.398826898926867</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="P15" s="14">
         <f>EOMONTH($J$1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="Q15" s="52">
         <f t="shared" si="3"/>
@@ -10886,43 +13614,62 @@
         <v>0</v>
       </c>
       <c r="S15" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>44255</v>
+      </c>
+      <c r="B16" s="72">
+        <v>9407</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.7853414073919383E-2</v>
+      </c>
+      <c r="D16" s="51">
+        <f t="shared" si="2"/>
+        <v>12043.527420932411</v>
+      </c>
+      <c r="E16" s="59">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="F16" s="51">
+        <f t="shared" si="2"/>
+        <v>11278.172303231186</v>
+      </c>
+      <c r="G16" s="59">
+        <v>8.6086360520905014E-3</v>
+      </c>
       <c r="I16" s="30" t="str">
         <f>I24</f>
         <v>S&amp;P 10% Vol Risk Parity</v>
       </c>
       <c r="J16" s="27">
         <f>J24*100</f>
-        <v>10.136969705607772</v>
+        <v>1.184749025380569</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" si="5"/>
-        <v>11.479187930767111</v>
+        <f t="shared" si="6"/>
+        <v>1.184749025380569</v>
       </c>
       <c r="L16" s="26">
+        <f t="shared" si="7"/>
+        <v>30.693338236400301</v>
+      </c>
+      <c r="M16" s="27">
         <f t="shared" si="6"/>
-        <v>11.479187930767111</v>
-      </c>
-      <c r="M16" s="27">
-        <f t="shared" si="5"/>
-        <v>11.479187930767122</v>
+        <v>12.799936523279044</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="14">
         <f>EOMONTH($J$1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="Q16" s="52">
         <f t="shared" si="3"/>
@@ -10933,17 +13680,36 @@
         <v>0</v>
       </c>
       <c r="S16" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>44286</v>
+      </c>
+      <c r="B17" s="72">
+        <v>9429</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3386839587540287E-3</v>
+      </c>
+      <c r="D17" s="51">
+        <f t="shared" si="2"/>
+        <v>12570.980396943958</v>
+      </c>
+      <c r="E17" s="59">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="F17" s="51">
+        <f t="shared" si="2"/>
+        <v>11279.993652327905</v>
+      </c>
+      <c r="G17" s="59">
+        <v>1.6149328523717976E-4</v>
+      </c>
       <c r="O17" s="19" t="s">
         <v>5</v>
       </c>
@@ -10960,11 +13726,11 @@
         <v>10000</v>
       </c>
       <c r="S17" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57"/>
       <c r="C18" s="8"/>
       <c r="D18" s="51"/>
@@ -10993,22 +13759,22 @@
       </c>
       <c r="P18" s="21">
         <f>J1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="Q18" s="54">
         <f t="shared" si="3"/>
-        <v>9845</v>
+        <v>9429</v>
       </c>
       <c r="R18" s="55">
         <f t="shared" si="4"/>
-        <v>11839.882689892687</v>
+        <v>12570.980396943958</v>
       </c>
       <c r="S18" s="71">
-        <f t="shared" si="7"/>
-        <v>11147.918793076711</v>
+        <f t="shared" si="5"/>
+        <v>11279.993652327905</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57"/>
       <c r="C19" s="8"/>
       <c r="D19" s="51"/>
@@ -11018,23 +13784,22 @@
       <c r="I19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="67">
-        <v>-4.0500000000000001E-2</v>
+      <c r="J19" s="31">
+        <f>Q21</f>
+        <v>-4.2254951752158459E-2</v>
       </c>
       <c r="K19" s="31">
         <f>Q22</f>
-        <v>-1.55E-2</v>
-      </c>
-      <c r="L19" s="31">
-        <f>Q23</f>
-        <v>-1.55E-2</v>
-      </c>
-      <c r="M19" s="31">
-        <f>Q31</f>
-        <v>-1.5499999999999958E-2</v>
+        <v>-4.2254951752158459E-2</v>
+      </c>
+      <c r="L19" s="78">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="M19" s="67">
+        <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="8"/>
       <c r="D20" s="51"/>
@@ -11045,19 +13810,19 @@
         <v>9</v>
       </c>
       <c r="J20" s="67">
-        <v>-4.1599999999999998E-2</v>
+        <v>-4.2299999999999997E-2</v>
       </c>
       <c r="K20" s="67">
-        <v>-1.7899999999999999E-2</v>
+        <v>-4.2299999999999997E-2</v>
       </c>
       <c r="L20" s="67">
-        <v>-1.7899999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="M20" s="67">
-        <v>-1.7899999999999999E-2</v>
-      </c>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
       <c r="Q20" s="34" t="str">
         <f>Q10</f>
         <v>TEZIX</v>
@@ -11067,10 +13832,10 @@
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="S20" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="8"/>
       <c r="D21" s="51"/>
@@ -11081,35 +13846,35 @@
         <v>10</v>
       </c>
       <c r="J21" s="67">
-        <v>-4.2799999999999998E-2</v>
+        <v>-4.4600000000000001E-2</v>
       </c>
       <c r="K21" s="67">
-        <v>-2.5600000000000001E-2</v>
+        <v>-4.4600000000000001E-2</v>
       </c>
       <c r="L21" s="67">
-        <v>-2.5600000000000001E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="M21" s="67">
-        <v>-2.5600000000000001E-2</v>
-      </c>
-      <c r="O21" s="88" t="s">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="O21" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="89"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="8">
         <f>($Q$18-Q11)/Q11</f>
-        <v>-4.0448343079922025E-2</v>
+        <v>-4.2254951752158459E-2</v>
       </c>
       <c r="R21" s="42">
         <f>($R$18-R11)/R11</f>
-        <v>0.12148296749594965</v>
+        <v>6.1748728952811714E-2</v>
       </c>
       <c r="S21" s="42">
         <f>($S$18-S11)/S11</f>
-        <v>0.10136969705607772</v>
+        <v>1.184749025380569E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="57"/>
       <c r="C22" s="8"/>
       <c r="D22" s="51"/>
@@ -11120,35 +13885,35 @@
         <v>11</v>
       </c>
       <c r="J22" s="67">
-        <v>-9.6299999999999997E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="K22" s="67">
-        <v>-7.4399999999999994E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="L22" s="67">
-        <v>-7.4399999999999994E-2</v>
+        <v>-4.02E-2</v>
       </c>
       <c r="M22" s="67">
-        <v>-7.4399999999999994E-2</v>
-      </c>
-      <c r="O22" s="88" t="s">
+        <v>-9.1899999999999996E-2</v>
+      </c>
+      <c r="O22" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="89"/>
+      <c r="P22" s="85"/>
       <c r="Q22" s="8">
         <f>($Q$18-Q12)/Q12</f>
-        <v>-1.55E-2</v>
+        <v>-4.2254951752158459E-2</v>
       </c>
       <c r="R22" s="42">
         <f>($R$18-R12)/R12</f>
-        <v>0.18398826898926873</v>
+        <v>6.1748728952811714E-2</v>
       </c>
       <c r="S22" s="42">
         <f>($S$18-S12)/S12</f>
-        <v>0.11479187930767111</v>
+        <v>1.184749025380569E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
       <c r="C23" s="8"/>
       <c r="D23" s="51"/>
@@ -11161,38 +13926,37 @@
       </c>
       <c r="J23" s="31">
         <f>R21</f>
-        <v>0.12148296749594965</v>
+        <v>6.1748728952811714E-2</v>
       </c>
       <c r="K23" s="31">
         <f>R22</f>
-        <v>0.18398826898926873</v>
+        <v>6.1748728952811714E-2</v>
       </c>
       <c r="L23" s="31">
         <f>R23</f>
-        <v>0.18398826898926873</v>
-      </c>
-      <c r="M23" s="31">
-        <f>R31</f>
-        <v>0.18398826898926868</v>
-      </c>
-      <c r="O23" s="88" t="s">
+        <v>0.56351628330676395</v>
+      </c>
+      <c r="M23" s="67">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="O23" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="89"/>
+      <c r="P23" s="85"/>
       <c r="Q23" s="8">
         <f>($Q$18-Q13)/Q13</f>
-        <v>-1.55E-2</v>
+        <v>1.935135135135135E-2</v>
       </c>
       <c r="R23" s="42">
         <f>($R$18-R13)/R13</f>
-        <v>0.18398826898926873</v>
+        <v>0.56351628330676395</v>
       </c>
       <c r="S23" s="42">
         <f>($S$18-S13)/S13</f>
-        <v>0.11479187930767111</v>
+        <v>0.30693338236400303</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="8"/>
       <c r="D24" s="51"/>
@@ -11205,25 +13969,25 @@
       </c>
       <c r="J24" s="31">
         <f>S21</f>
-        <v>0.10136969705607772</v>
+        <v>1.184749025380569E-2</v>
       </c>
       <c r="K24" s="31">
         <f>S22</f>
-        <v>0.11479187930767111</v>
+        <v>1.184749025380569E-2</v>
       </c>
       <c r="L24" s="31">
         <f>S23</f>
-        <v>0.11479187930767111</v>
+        <v>0.30693338236400303</v>
       </c>
       <c r="M24" s="31">
         <f>S31</f>
-        <v>0.11479187930767121</v>
-      </c>
-      <c r="O24" s="88" t="str">
+        <v>0.12799936523279043</v>
+      </c>
+      <c r="O24" s="84" t="str">
         <f>O14</f>
         <v>2YR</v>
       </c>
-      <c r="P24" s="89"/>
+      <c r="P24" s="85"/>
       <c r="Q24" s="8" t="e">
         <f>Q18/Q14-1</f>
         <v>#DIV/0!</v>
@@ -11237,7 +14001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="57"/>
       <c r="C25" s="8"/>
       <c r="D25" s="51"/>
@@ -11245,10 +14009,10 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="M25" s="6"/>
-      <c r="O25" s="88" t="s">
+      <c r="O25" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="89"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="8" t="e">
         <f>(1+Q24)^(12/24)-1</f>
         <v>#DIV/0!</v>
@@ -11262,7 +14026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="57"/>
       <c r="C26" s="8"/>
       <c r="D26" s="51"/>
@@ -11270,11 +14034,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="M26" s="6"/>
-      <c r="O26" s="88" t="str">
+      <c r="O26" s="84" t="str">
         <f>O15</f>
         <v>3YR</v>
       </c>
-      <c r="P26" s="89"/>
+      <c r="P26" s="85"/>
       <c r="Q26" s="8" t="e">
         <f>Q18/Q15-1</f>
         <v>#DIV/0!</v>
@@ -11288,7 +14052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
       <c r="C27" s="8"/>
       <c r="D27" s="51"/>
@@ -11296,10 +14060,10 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="M27" s="6"/>
-      <c r="O27" s="88" t="s">
+      <c r="O27" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="89"/>
+      <c r="P27" s="85"/>
       <c r="Q27" s="8" t="e">
         <f>(1+Q26)^(12/36)-1</f>
         <v>#DIV/0!</v>
@@ -11313,7 +14077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57"/>
       <c r="C28" s="8"/>
       <c r="D28" s="51"/>
@@ -11321,11 +14085,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="M28" s="25"/>
-      <c r="O28" s="88" t="str">
+      <c r="O28" s="84" t="str">
         <f>O16</f>
         <v>5YR</v>
       </c>
-      <c r="P28" s="89"/>
+      <c r="P28" s="85"/>
       <c r="Q28" s="8" t="e">
         <f>Q18/Q16-1</f>
         <v>#DIV/0!</v>
@@ -11339,7 +14103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="57"/>
       <c r="C29" s="8"/>
       <c r="D29" s="51"/>
@@ -11347,10 +14111,10 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="M29" s="25"/>
-      <c r="O29" s="88" t="s">
+      <c r="O29" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="89"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="8" t="e">
         <f>(1+Q28)^(1/5)-1</f>
         <v>#DIV/0!</v>
@@ -11364,7 +14128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
       <c r="C30" s="8"/>
       <c r="D30" s="51"/>
@@ -11381,27 +14145,27 @@
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="O30" s="88" t="s">
+      <c r="O30" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="89"/>
+      <c r="P30" s="85"/>
       <c r="Q30" s="8">
         <f>($Q$18-Q17)/Q17</f>
-        <v>-1.55E-2</v>
+        <v>-5.7099999999999998E-2</v>
       </c>
       <c r="R30" s="42">
         <f>($R$18-R17)/R17</f>
-        <v>0.18398826898926873</v>
+        <v>0.25709803969439582</v>
       </c>
       <c r="S30" s="42">
         <f>($S$18-S17)/S17</f>
-        <v>0.11479187930767111</v>
+        <v>0.12799936523279049</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="51"/>
@@ -11409,39 +14173,39 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="I31" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="44">
         <f>M19</f>
-        <v>-1.5499999999999958E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="K31" s="63">
         <f>M23</f>
-        <v>0.18398826898926868</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="L31" s="63">
         <f>M24</f>
-        <v>0.11479187930767121</v>
+        <v>0.12799936523279043</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="O31" s="86" t="s">
+      <c r="O31" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="87"/>
+      <c r="P31" s="99"/>
       <c r="Q31" s="35">
         <f>IF(J3&gt;12,(POWER(Q18/Q17,12/J3)-1),(Q18/Q17-1))</f>
-        <v>-1.5499999999999958E-2</v>
+        <v>-4.5946984436491922E-2</v>
       </c>
       <c r="R31" s="43">
         <f>IF(J3&gt;12,(POWER(R18/R17,12/J3)-1),(R18/R17-1))</f>
-        <v>0.18398826898926868</v>
+        <v>0.20086813040514362</v>
       </c>
       <c r="S31" s="43">
         <f>IF(K3&gt;12,(POWER(S18/S17,12/K3)-1),(S18/S17-1))</f>
-        <v>0.11479187930767121</v>
+        <v>0.12799936523279043</v>
       </c>
     </row>
-    <row r="32" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="51"/>
@@ -11449,25 +14213,25 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="I32" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="44" t="str">
+        <v>32</v>
+      </c>
+      <c r="J32" s="44">
         <f>IF($J$3&gt;12,Q31,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="K32" s="63" t="str">
+        <v>-4.5946984436491922E-2</v>
+      </c>
+      <c r="K32" s="63">
         <f>IF($J$3&gt;12,R31,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="L32" s="63" t="str">
+        <v>0.20086813040514362</v>
+      </c>
+      <c r="L32" s="63">
         <f>IF($J$3&gt;12,S31,"n/a")</f>
-        <v>n/a</v>
+        <v>0.12799936523279043</v>
       </c>
       <c r="M32" s="46"/>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
     </row>
-    <row r="33" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="51"/>
@@ -11475,25 +14239,25 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="I33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="94">
+        <v>33</v>
+      </c>
+      <c r="J33" s="74">
         <f>STDEV(C3:C8)*SQRT(12)</f>
         <v>0.16118685184622444</v>
       </c>
-      <c r="K33" s="95">
+      <c r="K33" s="75">
         <f>STDEV(E3:E8)*SQRT(12)</f>
         <v>0.31411329988830899</v>
       </c>
-      <c r="L33" s="95">
+      <c r="L33" s="75">
         <f>STDEV(G3:G8)*SQRT(12)</f>
         <v>0.20309941693150724</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57"/>
       <c r="C34" s="8"/>
       <c r="D34" s="51"/>
@@ -11501,23 +14265,23 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="I34" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="96">
+        <v>34</v>
+      </c>
+      <c r="J34" s="76">
         <f>J31/J33</f>
-        <v>-9.6161689507946194E-2</v>
-      </c>
-      <c r="K34" s="97">
+        <v>-0.28538307853971207</v>
+      </c>
+      <c r="K34" s="77">
         <f>K31/K33</f>
-        <v>0.58573855056341262</v>
-      </c>
-      <c r="L34" s="97">
+        <v>0.63989649617342115</v>
+      </c>
+      <c r="L34" s="77">
         <f>L31/L33</f>
-        <v>0.56520043750979032</v>
+        <v>0.63023009699706145</v>
       </c>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57"/>
       <c r="C35" s="8"/>
       <c r="D35" s="51"/>
@@ -11532,14 +14296,14 @@
         <v>n/a</v>
       </c>
       <c r="K35" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L35" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57"/>
       <c r="C36" s="8"/>
       <c r="D36" s="51"/>
@@ -11547,21 +14311,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="44" t="str">
         <f>IF($J$3&gt;36,J8,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="K36" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L36" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="57"/>
       <c r="C37" s="8"/>
       <c r="D37" s="51"/>
@@ -11573,7 +14337,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57"/>
       <c r="C38" s="8"/>
       <c r="D38" s="51"/>
@@ -11585,7 +14349,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="57"/>
       <c r="C39" s="8"/>
       <c r="D39" s="51"/>
@@ -11597,7 +14361,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="57"/>
       <c r="C40" s="8"/>
       <c r="D40" s="51"/>
@@ -11609,7 +14373,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="57"/>
       <c r="C41" s="8"/>
       <c r="D41" s="51"/>
@@ -11621,7 +14385,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57"/>
       <c r="C42" s="8"/>
       <c r="D42" s="51"/>
@@ -11633,7 +14397,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
     </row>
-    <row r="43" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="57"/>
       <c r="C43" s="8"/>
       <c r="D43" s="51"/>
@@ -11645,7 +14409,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57"/>
       <c r="C44" s="8"/>
       <c r="D44" s="51"/>
@@ -11657,7 +14421,7 @@
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="51"/>
@@ -11669,7 +14433,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="57"/>
       <c r="C46" s="8"/>
       <c r="D46" s="51"/>
@@ -11681,7 +14445,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
       <c r="C47" s="8"/>
       <c r="D47" s="51"/>
@@ -11693,7 +14457,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
     </row>
-    <row r="48" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="57"/>
       <c r="C48" s="8"/>
       <c r="D48" s="51"/>
@@ -11705,7 +14469,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="8"/>
       <c r="D49" s="51"/>
@@ -11717,7 +14481,7 @@
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57"/>
       <c r="C50" s="8"/>
       <c r="D50" s="51"/>
@@ -11729,7 +14493,7 @@
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="57"/>
       <c r="C51" s="8"/>
       <c r="D51" s="51"/>
@@ -11741,7 +14505,7 @@
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="57"/>
       <c r="C52" s="8"/>
       <c r="D52" s="51"/>
@@ -11753,7 +14517,7 @@
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="57"/>
       <c r="C53" s="8"/>
       <c r="D53" s="51"/>
@@ -11765,7 +14529,7 @@
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="57"/>
       <c r="C54" s="8"/>
       <c r="D54" s="51"/>
@@ -11777,7 +14541,7 @@
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="57"/>
       <c r="C55" s="8"/>
       <c r="D55" s="51"/>
@@ -11789,7 +14553,7 @@
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="57"/>
       <c r="C56" s="8"/>
       <c r="D56" s="51"/>
@@ -11801,7 +14565,7 @@
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="57"/>
       <c r="C57" s="8"/>
       <c r="D57" s="51"/>
@@ -11813,7 +14577,7 @@
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="57"/>
       <c r="C58" s="8"/>
       <c r="D58" s="51"/>
@@ -11825,7 +14589,7 @@
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="57"/>
       <c r="C59" s="8"/>
       <c r="D59" s="51"/>
@@ -11837,7 +14601,7 @@
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="57"/>
       <c r="C60" s="8"/>
       <c r="D60" s="51"/>
@@ -11849,7 +14613,7 @@
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="57"/>
       <c r="C61" s="8"/>
       <c r="D61" s="51"/>
@@ -11861,7 +14625,7 @@
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="57"/>
       <c r="C62" s="8"/>
       <c r="D62" s="51"/>
@@ -11873,7 +14637,7 @@
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="57"/>
       <c r="C63" s="8"/>
       <c r="D63" s="51"/>
@@ -11885,7 +14649,7 @@
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="57"/>
       <c r="C64" s="8"/>
       <c r="D64" s="51"/>
@@ -11897,7 +14661,7 @@
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="57"/>
       <c r="C65" s="8"/>
       <c r="D65" s="51"/>
@@ -11911,7 +14675,7 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="57"/>
       <c r="C66" s="8"/>
       <c r="D66" s="51"/>
@@ -11925,7 +14689,7 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="57"/>
       <c r="C67" s="8"/>
       <c r="D67" s="51"/>
@@ -11939,7 +14703,7 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="57"/>
       <c r="C68" s="8"/>
       <c r="D68" s="51"/>
@@ -11953,7 +14717,7 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="57"/>
       <c r="C69" s="8"/>
       <c r="D69" s="51"/>
@@ -11967,7 +14731,7 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="57"/>
       <c r="C70" s="8"/>
       <c r="D70" s="51"/>
@@ -11981,7 +14745,7 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="57"/>
       <c r="C71" s="8"/>
       <c r="D71" s="51"/>
@@ -11995,7 +14759,7 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="57"/>
       <c r="C72" s="8"/>
       <c r="D72" s="51"/>
@@ -12009,7 +14773,7 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="57"/>
       <c r="C73" s="8"/>
       <c r="D73" s="51"/>
@@ -12023,7 +14787,7 @@
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="57"/>
       <c r="C74" s="8"/>
       <c r="D74" s="51"/>
@@ -12037,7 +14801,7 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="57"/>
       <c r="C75" s="8"/>
       <c r="D75" s="51"/>
@@ -12051,7 +14815,7 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="57"/>
       <c r="C76" s="8"/>
       <c r="D76" s="51"/>
@@ -12065,7 +14829,7 @@
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="57"/>
       <c r="C77" s="8"/>
       <c r="D77" s="51"/>
@@ -12079,7 +14843,7 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="57"/>
       <c r="C78" s="8"/>
       <c r="D78" s="51"/>
@@ -12093,7 +14857,7 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="57"/>
       <c r="C79" s="8"/>
       <c r="D79" s="51"/>
@@ -12107,7 +14871,7 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="57"/>
       <c r="C80" s="8"/>
       <c r="D80" s="51"/>
@@ -12121,8 +14885,10 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="57"/>
       <c r="C81" s="8"/>
+      <c r="D81" s="51"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -12133,8 +14899,10 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="57"/>
       <c r="C82" s="8"/>
+      <c r="D82" s="51"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -12145,9 +14913,10 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="57"/>
       <c r="C83" s="8"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -12158,8 +14927,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -12171,8 +14939,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -12184,7 +14951,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="C86" s="8"/>
       <c r="E86" s="8"/>
@@ -12197,7 +14964,7 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="C87" s="8"/>
       <c r="E87" s="8"/>
@@ -12210,7 +14977,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="C88" s="8"/>
       <c r="E88" s="8"/>
@@ -12223,7 +14990,7 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="C89" s="8"/>
       <c r="E89" s="8"/>
@@ -12236,7 +15003,7 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="C90" s="8"/>
       <c r="E90" s="8"/>
@@ -12249,7 +15016,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
@@ -12262,7 +15029,7 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="C92" s="8"/>
       <c r="E92" s="8"/>
@@ -12275,7 +15042,7 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="C93" s="8"/>
       <c r="E93" s="8"/>
@@ -12288,7 +15055,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="C94" s="8"/>
       <c r="E94" s="8"/>
@@ -12301,7 +15068,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="C95" s="8"/>
       <c r="E95" s="8"/>
@@ -12314,7 +15081,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="C96" s="8"/>
       <c r="E96" s="8"/>
@@ -12327,7 +15094,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="C97" s="8"/>
       <c r="E97" s="8"/>
@@ -12340,7 +15107,7 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="C98" s="8"/>
       <c r="E98" s="8"/>
@@ -12353,7 +15120,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="C99" s="8"/>
       <c r="E99" s="8"/>
@@ -12366,7 +15133,7 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="C100" s="8"/>
       <c r="E100" s="8"/>
@@ -12379,8 +15146,12 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
+      <c r="C101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="L101" s="47"/>
@@ -12388,41 +15159,45 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
+      <c r="C102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
+      <c r="C103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:Q3"/>
@@ -12433,6 +15208,13 @@
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12443,37 +15225,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1790705B-5E43-4904-AAD8-583CCC417E8F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="66"/>
-    <col min="3" max="3" width="16.109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="66"/>
+    <col min="3" max="3" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
         <f>'TEZ Fact Sheet Backup'!A2</f>
         <v>43830</v>
@@ -12491,7 +15273,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="65">
         <f>'TEZ Fact Sheet Backup'!A3</f>
         <v>43861</v>
@@ -12509,7 +15291,7 @@
         <v>9979.550397270501</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="65">
         <f>'TEZ Fact Sheet Backup'!A4</f>
         <v>43890</v>
@@ -12527,7 +15309,7 @@
         <v>9667.8111711815691</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'TEZ Fact Sheet Backup'!A5</f>
         <v>43921</v>
@@ -12545,7 +15327,7 @@
         <v>8630.8864740484805</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <f>'TEZ Fact Sheet Backup'!A6</f>
         <v>43951</v>
@@ -12563,7 +15345,7 @@
         <v>8835.9595624434223</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>'TEZ Fact Sheet Backup'!A7</f>
         <v>43982</v>
@@ -12581,7 +15363,7 @@
         <v>9323.1794623954556</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <f>'TEZ Fact Sheet Backup'!A8</f>
         <v>44012</v>
@@ -12599,7 +15381,7 @@
         <v>9648.5156906519733</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <f>'TEZ Fact Sheet Backup'!A9</f>
         <v>44043</v>
@@ -12617,7 +15399,7 @@
         <v>9996.5376334002976</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <f>'TEZ Fact Sheet Backup'!A10</f>
         <v>44074</v>
@@ -12635,7 +15417,7 @@
         <v>10244.764072175918</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <f>'TEZ Fact Sheet Backup'!A11</f>
         <v>44104</v>
@@ -12653,7 +15435,7 @@
         <v>10121.868091045817</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <f>'TEZ Fact Sheet Backup'!A12</f>
         <v>44135</v>
@@ -12671,7 +15453,7 @@
         <v>9907.1833287048248</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <f>'TEZ Fact Sheet Backup'!A13</f>
         <v>44165</v>
@@ -12689,7 +15471,7 @@
         <v>10718.693533669715</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <f>'TEZ Fact Sheet Backup'!A14</f>
         <v>44196</v>
@@ -12705,6 +15487,60 @@
       <c r="D14" s="66">
         <f>'TEZ Fact Sheet Backup'!F14</f>
         <v>11147.918793076711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <f>'TEZ Fact Sheet Backup'!A15</f>
+        <v>44227</v>
+      </c>
+      <c r="B15" s="66">
+        <f>'TEZ Fact Sheet Backup'!B15</f>
+        <v>9578</v>
+      </c>
+      <c r="C15" s="66">
+        <f>'TEZ Fact Sheet Backup'!D15</f>
+        <v>11720.344789175979</v>
+      </c>
+      <c r="D15" s="66">
+        <f>'TEZ Fact Sheet Backup'!F15</f>
+        <v>11181.911298495677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="65">
+        <f>'TEZ Fact Sheet Backup'!A16</f>
+        <v>44255</v>
+      </c>
+      <c r="B16" s="66">
+        <f>'TEZ Fact Sheet Backup'!B16</f>
+        <v>9407</v>
+      </c>
+      <c r="C16" s="66">
+        <f>'TEZ Fact Sheet Backup'!D16</f>
+        <v>12043.527420932411</v>
+      </c>
+      <c r="D16" s="66">
+        <f>'TEZ Fact Sheet Backup'!F16</f>
+        <v>11278.172303231186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="65">
+        <f>'TEZ Fact Sheet Backup'!A17</f>
+        <v>44286</v>
+      </c>
+      <c r="B17" s="66">
+        <f>'TEZ Fact Sheet Backup'!B17</f>
+        <v>9429</v>
+      </c>
+      <c r="C17" s="66">
+        <f>'TEZ Fact Sheet Backup'!D17</f>
+        <v>12570.980396943958</v>
+      </c>
+      <c r="D17" s="66">
+        <f>'TEZ Fact Sheet Backup'!F17</f>
+        <v>11279.993652327905</v>
       </c>
     </row>
   </sheetData>
@@ -12716,20 +15552,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E6EFFD-DB9E-4693-9B40-D6BFA03124D4}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="66"/>
-    <col min="5" max="5" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="66"/>
+    <col min="5" max="5" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'TEZ Fact Sheet Backup'!I10</f>
         <v>Share Class/Benchmark</v>
@@ -12751,153 +15589,153 @@
         <v>Since Inception</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'TEZ Fact Sheet Backup'!I11</f>
         <v>Class I</v>
       </c>
       <c r="B2" s="66">
         <f>'TEZ Fact Sheet Backup'!J11</f>
-        <v>-4.05</v>
+        <v>-4.2254951752158458</v>
       </c>
       <c r="C2" s="66">
         <f>'TEZ Fact Sheet Backup'!K11</f>
-        <v>-1.55</v>
+        <v>-4.2254951752158458</v>
       </c>
       <c r="D2" s="66">
         <f>'TEZ Fact Sheet Backup'!L11</f>
-        <v>-1.55</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="E2" s="66">
         <f>'TEZ Fact Sheet Backup'!M11</f>
-        <v>-1.5499999999999958</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'TEZ Fact Sheet Backup'!I12</f>
         <v>Class A</v>
       </c>
       <c r="B3" s="66">
         <f>'TEZ Fact Sheet Backup'!J12</f>
-        <v>-4.16</v>
+        <v>-4.2299999999999995</v>
       </c>
       <c r="C3" s="66">
         <f>'TEZ Fact Sheet Backup'!K12</f>
-        <v>-1.79</v>
+        <v>-4.2299999999999995</v>
       </c>
       <c r="D3" s="66">
         <f>'TEZ Fact Sheet Backup'!L12</f>
-        <v>-1.79</v>
+        <v>1.79</v>
       </c>
       <c r="E3" s="66">
         <f>'TEZ Fact Sheet Backup'!M12</f>
-        <v>-1.79</v>
+        <v>-4.79</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'TEZ Fact Sheet Backup'!I13</f>
         <v>Class C</v>
       </c>
       <c r="B4" s="66">
         <f>'TEZ Fact Sheet Backup'!J13</f>
-        <v>-4.2799999999999994</v>
+        <v>-4.46</v>
       </c>
       <c r="C4" s="66">
         <f>'TEZ Fact Sheet Backup'!K13</f>
-        <v>-2.56</v>
+        <v>-4.46</v>
       </c>
       <c r="D4" s="66">
         <f>'TEZ Fact Sheet Backup'!L13</f>
-        <v>-2.56</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="66">
         <f>'TEZ Fact Sheet Backup'!M13</f>
-        <v>-2.56</v>
+        <v>-5.56</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'TEZ Fact Sheet Backup'!I14</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B5" s="66">
         <f>'TEZ Fact Sheet Backup'!J14</f>
-        <v>-9.629999999999999</v>
+        <v>-9.7000000000000011</v>
       </c>
       <c r="C5" s="66">
         <f>'TEZ Fact Sheet Backup'!K14</f>
-        <v>-7.4399999999999995</v>
+        <v>-9.7000000000000011</v>
       </c>
       <c r="D5" s="66">
         <f>'TEZ Fact Sheet Backup'!L14</f>
-        <v>-7.4399999999999995</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="E5" s="66">
         <f>'TEZ Fact Sheet Backup'!M14</f>
-        <v>-7.4399999999999995</v>
+        <v>-9.19</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'TEZ Fact Sheet Backup'!I15</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B6" s="66">
         <f>'TEZ Fact Sheet Backup'!J15</f>
-        <v>12.148296749594966</v>
+        <v>6.1748728952811716</v>
       </c>
       <c r="C6" s="66">
         <f>'TEZ Fact Sheet Backup'!K15</f>
-        <v>18.398826898926874</v>
+        <v>6.1748728952811716</v>
       </c>
       <c r="D6" s="66">
         <f>'TEZ Fact Sheet Backup'!L15</f>
-        <v>18.398826898926874</v>
+        <v>56.351628330676398</v>
       </c>
       <c r="E6" s="66">
         <f>'TEZ Fact Sheet Backup'!M15</f>
-        <v>18.398826898926867</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="66">
         <f>'TEZ Fact Sheet Backup'!J16</f>
-        <v>10.136969705607772</v>
+        <v>1.184749025380569</v>
       </c>
       <c r="C7" s="66">
         <f>'TEZ Fact Sheet Backup'!K16</f>
-        <v>11.479187930767111</v>
+        <v>1.184749025380569</v>
       </c>
       <c r="D7" s="66">
         <f>'TEZ Fact Sheet Backup'!L16</f>
-        <v>11.479187930767111</v>
+        <v>30.693338236400301</v>
       </c>
       <c r="E7" s="66">
         <f>'TEZ Fact Sheet Backup'!M16</f>
-        <v>11.479187930767122</v>
+        <v>12.799936523279044</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -12911,115 +15749,123 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E593D5F-2A71-4FFB-ADFD-6156A1509F00}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="68"/>
-    <col min="3" max="3" width="10.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="68"/>
+    <col min="3" max="3" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'TEZ Fact Sheet Backup'!I31</f>
         <v>Cumulative Return</v>
       </c>
       <c r="B2" s="68">
         <f>'TEZ Fact Sheet Backup'!J31</f>
-        <v>-1.5499999999999958E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="C2" s="68">
         <f>'TEZ Fact Sheet Backup'!K31</f>
-        <v>0.18398826898926868</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D2" s="68">
         <f>'TEZ Fact Sheet Backup'!L31</f>
-        <v>0.11479187930767121</v>
+        <v>0.12799936523279043</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'TEZ Fact Sheet Backup'!I32</f>
         <v>Annualized Return</v>
       </c>
-      <c r="B3" s="68" t="str">
+      <c r="B3" s="68">
         <f>'TEZ Fact Sheet Backup'!J32</f>
-        <v>n/a</v>
-      </c>
-      <c r="C3" s="68" t="str">
+        <v>-4.5946984436491922E-2</v>
+      </c>
+      <c r="C3" s="68">
         <f>'TEZ Fact Sheet Backup'!K32</f>
-        <v>n/a</v>
-      </c>
-      <c r="D3" s="68" t="str">
+        <v>0.20086813040514362</v>
+      </c>
+      <c r="D3" s="68">
         <f>'TEZ Fact Sheet Backup'!L32</f>
-        <v>n/a</v>
+        <v>0.12799936523279043</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'TEZ Fact Sheet Backup'!I33</f>
         <v>Standard Deviation</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>31</v>
+      <c r="B4" s="68">
+        <f>'TEZ Fact Sheet Backup'!J33</f>
+        <v>0.16118685184622444</v>
+      </c>
+      <c r="C4" s="68">
+        <f>'TEZ Fact Sheet Backup'!K33</f>
+        <v>0.31411329988830899</v>
+      </c>
+      <c r="D4" s="68">
+        <f>'TEZ Fact Sheet Backup'!L33</f>
+        <v>0.20309941693150724</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'TEZ Fact Sheet Backup'!I34</f>
         <v>Sharpe Ratio</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>31</v>
+      <c r="B5" s="79">
+        <f>'TEZ Fact Sheet Backup'!J34</f>
+        <v>-0.28538307853971207</v>
+      </c>
+      <c r="C5" s="79">
+        <f>'TEZ Fact Sheet Backup'!K34</f>
+        <v>0.63989649617342115</v>
+      </c>
+      <c r="D5" s="79">
+        <f>'TEZ Fact Sheet Backup'!L34</f>
+        <v>0.63023009699706145</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'TEZ Fact Sheet Backup'!I35</f>
         <v>Beta</v>
@@ -13040,7 +15886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'TEZ Fact Sheet Backup'!I36</f>
         <v>R-Squared</v>
